--- a/HJ/coupang_review_crawling/쿠팡-상품리뷰-크롤링/삼성전자 갤럭시 버즈2 프로, SM-R510N, 보라퍼플.xlsx
+++ b/HJ/coupang_review_crawling/쿠팡-상품리뷰-크롤링/삼성전자 갤럭시 버즈2 프로, SM-R510N, 보라퍼플.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>상품명</t>
   </si>
@@ -46,7 +46,7 @@
     <t>갤럭시 버즈2 프로로 구매했구요컬러는 아무래도 퍼플이 제일 예뻐서 퍼플로 구매했어요아무래도 노이즈캔슬링은 역시 있어야 하고그리고 대화감지도 된다고 해서 프로로 구매하게 되었습니다1. 노이즈 캔슬링그리고 액티브 노이즈 캔슬링 정말 좋아요밖에서 큰 소음은 들리긴 하지만 생활 소음 같은 거는 확실히 줄여줘요끼고 있다가 빼면, 와 이렇게 시끄러웠나? 하고 놀랄정도에요2. 대화감지 기능이게 참 신기한데 음악 들을 때는 노이즈 캔슬링상태로 듣다가누군가 말 걸거나 해서 대화 감지되면 이어폰 따로 빼지 않아도 되고대화 음성 자동으로 감지해서 음악소리 줄이고 주변음 듣도록 하는 기능이 있어요이 부분이 엄청 편한거 같아요3. 연결 쉬움휴대폰이랑 연결이 엄청 빨라요갤럭시탭, 갤럭시폰 사용하시는 분들은 확실히 버즈 쓰는게 좋은 거 같아요한 번에 연결되니깐요4. 착용감귀에 쏙 들어가는 디자인! 처음에는 강낭콩이라고 조롱받았지만 ㅋㅋㅋㅋ!괜히 삼성이 이렇게 만든게 아니죠 귓바퀴에 쏙 들어가요물론 귓바퀴가 좀 작으신분들은 아프실 수도 있겠지만보통 사람한테는 잘 맞는 것 같아요그리고 새롭게 디자인된 이어버드는 기존보다 15% 더 작아져서귀에 꼭 맞게 들어간다고 해요5. 컬러아무래도 컬러가 예뻐요 특히 보라색이요!연보라색으로 나와서 색깔 넘 이뿐거 같아요 ㅠㅠ그 외에 흰색이랑 검은색도 깔끔해서 좋구요6. 표면그리고 전체적으로 표면이 조금 보송한 느낌? 빤딱거리는 그런 플라스틱이 아니라서 더 좋아요스크래치에도 더 강한 것 같고 더 고급진 느낌이 있어요너무 빤짝거리면 왠지 좀 싼티나는 느낌이 있는 거 같아요 ㅠㅠ하지만 역시 디자인 넘 잘 뽑아서 좋네요 ㅋㅋㅋ갤럭시 버즈는 가격대가 선물하기도 참 좋고가볍게 사서 쓰기도 좋은 거 같아요제 리뷰가 도움이 되셨을까요~?</t>
   </si>
   <si>
-    <t>디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 적당한 편이에요,사용 시간: 아주길어요,디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 적당한 편이에요,사용 시간: 적당해요,디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 성능에 비해 저렴해요,사용 시간: 적당해요,디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 적당한 편이에요,사용 시간: 아주길어요,디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 성능에 비해 저렴해요,사용 시간: 적당해요,</t>
+    <t>디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 적당한 편이에요,사용 시간: 아주길어요,</t>
   </si>
   <si>
     <t>삼성전자 갤럭시 버즈2 프로, SM-R510N, 화이트</t>
@@ -61,6 +61,9 @@
     <t>삼성전자 갤럭시 버즈2 프로 아이폰만 쓰다가 이번 기회에 삼성 핸드폰으로 교체했습니다.기존 에어팟도 사용한지 좀 되어서 갤럭시버즈2로 함께 구입했어요.생각보다 완전 좋습니다. 귀에 쏙 안기는 느낌도 좋고 빠지는 느낌도 없고 사용감이 기존 에어팟보다 좋더라구요.ㅎㅎㅎ출퇴근은 차로 이동해서 이어폰은 딱히 필요없었는데, 야구시즌이라 야구보러 다닐때 하곤 합니다. 잠깐이라도 이어폰 끼고 있으면 전 귀가 많이 아파서 잘 안끼는 이유 중 하나입니다.^^  색상도 보라퍼플, 그라파이트,화이트 세가지 종류인데 기본 화이트 했어요. 깔끔 그자체 입니다. 24bit Hi-Fi 사운드 강력한 소음제거는 기본이며, 대화 감지까지 지원하는  인텔리전트ANC 입체감 있는 생생한 360오디오로 완전 만족합니다. 갤럭시 디바이스를 통해 음악을 재생하면 모든 음이 살아있는 듯 깨끗하게 느껴집니다. 음악을 듣다가 대화 시작할때 이어폰을 귀에서 빼지 않고 대화 할수 있어서 좋네요. 방수부터 배터리도 오래가고 좋습니다.&lt;&lt;삼성전자 갤럭시 버즈2 프로 기능&gt;&gt;1. 무선으로 스튜디오급 24bit Hi-Fi 사운드 갤럭시 디바이스를 통해 음악을 재생하면 모든 음이 살아있는 듯 깨끗하게 느껴져요.향상된 SSC 코덱이 24bit 오디오를 인코딩하고 버즈2 프로로 디코딩하여 동일한 24bit 고품질 사운드를 유지합니다.2.오직 플레이리스트에 집중할 수 있음역대급으로 향상된 ANC(액티브 노이즈 캔슬링)를 경험할 수 있습니다. 3개의 고감도마이크가 적용된 갤럭시 버즈2 프로는 시끄러운 소음부터 바람처럼  잔잔한 소음까지 더 많은 외부 소음을 추적하고 제거 합니다.3.대화 감지 기능으로 쉽게 대화할수 있습니다.음악을 듣다가 대화를 시작할때 이어폰을 귀에서 빼지 않아도 되며, 갤럭시 버즈2프로는 대화 음성을 자동으로 감지하여 음악 소리를 자동으로 줄이고 주변음 듣기 기능을 활성화합니다.4.실제와 같이 느껴지는 현장감 360오디오360 오디오를 사용하면 사운드가 더욱 사실적으로 느껴집니다.다이렉트 멀티 채널과 향상된 Dolby Head Tracking이 포함된 360오디오 알고리즘이 모든 움직임을 동기화하여 몰입감 좋습니다.5.한번의 터치로 순식간에 연결 가능갤럭시 버즈2 프로는 갤럭시 기기에 자동으로 팝업되어 터치 한번으로 연결 되며, 오토스위치 기능은 모바일 활동을 지능적으로 감지하여 갤럭시 스마트폰,태블릿 워치와의 연결을 원활하게 전환할수 있습니다.6.내 귀에 맞는 맞춤형 디자인새롭게 디자인한 이어버는 기존보다 15% 작아져 귀에 꼭 맞게 들어갑니다. 인체공학적으로 설계되어 착용감은 더욱 편안해졌어요.향상된 공기 순환 기술이 외이도 압력을 줄이고 소음은 최소화하여 선명한 소리와 함께 편안함까지 제공됩니다.7.프리미엄 컬러 라인부드럽고 매트한 무광 소재의 이어버드와 케이스로 모던한 느낌그라파이트,화이트,보라퍼플 세가지의 프리미엄 컬러8.방수부터 배터리까지 강력한 성능으로 완전 무장충전 케이스와 이어버드 완충 시 이어버드는 ANC를 켠 상태에서 최대 5시간 재생  가능하며, 충전 케이스는 최대 18시간까지 사용 가능합니다. 오디오 재생 시간은 내부 실험치 기준으로 사전 생산된 갤럭시2프로를 최근 출시된 갤럭시 스마트폰에 연결해 ANC를 켠 기본 설정 모드로 테스트하여 실제 배터리 수명 및 재생시간, 충전시간은 사용 조건,충전 횟수 등 변수에 달라질 수 있습니다.**************리뷰에 도움이 되셨다면 도움이돼요!!콕 눌러주세요.^^**********************</t>
   </si>
   <si>
+    <t>디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 적당한 편이에요,사용 시간: 적당해요,</t>
+  </si>
+  <si>
     <t>삼성전자 갤럭시 버즈2 프로, SM-R510N, 그라파이트</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>☆아이폰을 쓰는 저는 아부지 선물용으로 구입하였습니다☆ ✔️주요 스펙이어버드 크기 (세로x가로x두께)21.6 x 19.9 x 18.7 mm이어버드 무게5.5 g케이스 크기 (세로x가로x두께)50.2 x 50.1 x 27.7 mm케이스 무게43.4 g연속 통화 시간최대 14시간(이어버드 3.5시간) 오디오 재생 시간최대 18시간(이어버드 5시간)액티브 노이즈 캔슬링 - 지원스피커 - 동축형 2-way 주변 소리 듣기 - 지원대화 감지 - 지원✔️디자인컬러는 아버지가 쓰기에 적합한 올블랙으로 구입하였습니다.외관이 예전에 비해 고급스럽게 바뀐 느낌입니다! 내부 디자인 또한 깔끔하고 그립감이 딱 좋은 사이즈입니다. 예전 디자인은타원형에 이런 매트한 느낌은 없었는데 확실히 갈수록 애플사 상품과 비교해봐도 디자인면에서도 뒤쳐지지 않는거 같습니다.✔️음질기존 저렴이 버전 에어팟을 쓰고 계시다가 잔고장이 많이 나서선물해드렸는데 드리고 직접 하루 테스트를 해봤습니다!일단 노이즈 캔슬링 역시 훌륭합니다! 일단 주변 소음을 잘 감지하여 제거하는 부분이 탑재되어있고, 대화 감지 기능도 있다보니 이어폰을 낀 상태로 대화를 해도 알아서 자동으로 감지하여 음량을 줄이고 원활한 소통을 할 수 있게 기능이 활성화됩니다.역시 믿고 사는 삼성// 디자인도 심플 고급미 뿜뿜// 기능도 훌륭하고 기분 좋은 선물이 될 수 있는 갤럭시 버즈2 프로 추천합니다제 내돈내산 리뷰가 도움이 되셨다면 “도움이 돼요” 버튼 꾸욱 눌러주세요ෆ 좋은 하루 되세요! 감사합니다!</t>
+  </si>
+  <si>
+    <t>디자인: 아주 마음에 들어요,착용감: 아주 좋아요,음질: 아주 만족해요,가성비: 성능에 비해 저렴해요,사용 시간: 적당해요,</t>
   </si>
   <si>
     <t>미공천사</t>
@@ -96,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,10 +155,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -468,7 +480,7 @@
     <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="136.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="133.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -491,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -528,67 +540,67 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
